--- a/记录.xlsx
+++ b/记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"> 编程</t>
   </si>
@@ -22,10 +22,25 @@
     <t>运动</t>
   </si>
   <si>
+    <t>英语</t>
+  </si>
+  <si>
     <t>mac安装git</t>
   </si>
   <si>
     <t>骑车1小时</t>
+  </si>
+  <si>
+    <t>阅读2篇</t>
+  </si>
+  <si>
+    <t>爬山5km</t>
+  </si>
+  <si>
+    <t>骑行10km</t>
+  </si>
+  <si>
+    <t>多领国1</t>
   </si>
 </sst>
 </file>
@@ -1170,25 +1185,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.9038461538462" customWidth="1"/>
-    <col min="2" max="2" width="17.4615384615385" customWidth="1"/>
-    <col min="3" max="3" width="23.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="24.5096153846154" customWidth="1"/>
+    <col min="3" max="3" width="29.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1196,10 +1214,37 @@
         <v>9.13</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>9.14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>9.16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>9.17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
